--- a/data.xlsx
+++ b/data.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="1410" yWindow="165" windowWidth="8490" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="2007 Raw Privacy Scores" sheetId="1" r:id="rId1"/>
+    <sheet name="privacy score" sheetId="1" r:id="rId1"/>
     <sheet name="2016 All Scores" sheetId="3" r:id="rId2"/>
     <sheet name="2015 All Scores" sheetId="4" r:id="rId3"/>
     <sheet name="2014 All Scores" sheetId="6" r:id="rId4"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1999" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1997" uniqueCount="300">
   <si>
     <t>Greece</t>
   </si>
@@ -919,9 +919,6 @@
   <si>
     <t>Year 2016</t>
   </si>
-  <si>
-    <t>Privacy Score</t>
-  </si>
 </sst>
 </file>
 
@@ -1252,10 +1249,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A2:B50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1267,14 +1264,6 @@
     <col min="6" max="6" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>286</v>
-      </c>
-      <c r="B1" t="s">
-        <v>300</v>
-      </c>
-    </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>3</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1410" yWindow="165" windowWidth="8490" windowHeight="8010"/>
+    <workbookView xWindow="1410" yWindow="165" windowWidth="8490" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="privacy score" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="2015 All Scores" sheetId="4" r:id="rId3"/>
     <sheet name="2014 All Scores" sheetId="6" r:id="rId4"/>
     <sheet name="2013 All Scores" sheetId="7" r:id="rId5"/>
+    <sheet name="PRIVACY" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1997" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2049" uniqueCount="301">
   <si>
     <t>Greece</t>
   </si>
@@ -919,6 +920,9 @@
   <si>
     <t>Year 2016</t>
   </si>
+  <si>
+    <t xml:space="preserve"> Hungary</t>
+  </si>
 </sst>
 </file>
 
@@ -1249,10 +1253,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:B50"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1264,395 +1268,870 @@
     <col min="6" max="6" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2">
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1">
+        <v>2013</v>
+      </c>
+      <c r="C1">
+        <v>2014</v>
+      </c>
+      <c r="D1">
+        <v>2015</v>
+      </c>
+      <c r="E1">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>3.1</v>
+      </c>
+      <c r="C2">
+        <v>3.1</v>
+      </c>
+      <c r="D2">
+        <v>3.1</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>25</v>
       </c>
       <c r="B3">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E3">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>21</v>
       </c>
       <c r="B4">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E4">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>2.7</v>
+      </c>
+      <c r="D5">
+        <v>2.7</v>
+      </c>
+      <c r="E5">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>28</v>
       </c>
       <c r="B6">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6">
+        <v>2.15</v>
+      </c>
+      <c r="D6">
+        <v>2.15</v>
+      </c>
+      <c r="E6">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>34</v>
       </c>
       <c r="B7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>2.1</v>
+      </c>
+      <c r="C7">
+        <v>2.1</v>
+      </c>
+      <c r="D7">
+        <v>2.1</v>
+      </c>
+      <c r="E7">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>1</v>
       </c>
       <c r="B8">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8">
+        <v>2.9</v>
+      </c>
+      <c r="D8">
+        <v>2.9</v>
+      </c>
+      <c r="E8">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>22</v>
       </c>
       <c r="B9">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9">
+        <v>2.35</v>
+      </c>
+      <c r="D9">
+        <v>2.35</v>
+      </c>
+      <c r="E9">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="B10">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10">
+        <v>2.5</v>
+      </c>
+      <c r="D10">
+        <v>2.5</v>
+      </c>
+      <c r="E10">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>33</v>
       </c>
       <c r="B11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>210</v>
       </c>
       <c r="B12">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12">
+        <v>1.4</v>
+      </c>
+      <c r="D12">
+        <v>1.4</v>
+      </c>
+      <c r="E12">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>9</v>
       </c>
       <c r="B13">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13">
+        <v>2.8</v>
+      </c>
+      <c r="D13">
+        <v>2.8</v>
+      </c>
+      <c r="E13">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>125</v>
       </c>
       <c r="B14">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="C15">
+        <v>2.5</v>
+      </c>
+      <c r="D15">
+        <v>2.6</v>
+      </c>
+      <c r="E15">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>37</v>
       </c>
       <c r="B16">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16">
+        <v>1.9</v>
+      </c>
+      <c r="D16">
+        <v>1.9</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>7</v>
       </c>
       <c r="B17">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>2.8</v>
+      </c>
+      <c r="D17">
+        <v>2.8</v>
+      </c>
+      <c r="E17">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>0</v>
       </c>
       <c r="B18">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>2.9</v>
+      </c>
+      <c r="C18">
+        <v>2.9</v>
+      </c>
+      <c r="D18">
+        <v>2.9</v>
+      </c>
+      <c r="E18">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>10</v>
       </c>
       <c r="B19">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>2.7</v>
+      </c>
+      <c r="D19">
+        <v>2.7</v>
+      </c>
+      <c r="E19">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>36</v>
       </c>
       <c r="B20">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20">
+        <v>1.9</v>
+      </c>
+      <c r="D20">
+        <v>1.9</v>
+      </c>
+      <c r="E20">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>26</v>
       </c>
       <c r="B21">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>2.8</v>
+      </c>
+      <c r="C21">
+        <v>2.8</v>
+      </c>
+      <c r="D21">
+        <v>2.8</v>
+      </c>
+      <c r="E21">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>8</v>
       </c>
       <c r="B22">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22">
+        <v>2.8</v>
+      </c>
+      <c r="D22">
+        <v>2.8</v>
+      </c>
+      <c r="E22">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>24</v>
       </c>
       <c r="B23">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D23">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E23">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>27</v>
       </c>
       <c r="B24">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D24">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E24">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>35</v>
       </c>
       <c r="B25">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>6</v>
       </c>
       <c r="B26">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="C26">
+        <v>2.8</v>
+      </c>
+      <c r="D26">
+        <v>2.8</v>
+      </c>
+      <c r="E26">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>46</v>
       </c>
       <c r="B27">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>1.3</v>
+      </c>
+      <c r="D27">
+        <v>1.3</v>
+      </c>
+      <c r="E27">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>16</v>
       </c>
       <c r="B28">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="C28">
+        <v>2.4</v>
+      </c>
+      <c r="D28">
+        <v>2.4</v>
+      </c>
+      <c r="E28">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>30</v>
       </c>
       <c r="B29">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="C29">
+        <v>2.1</v>
+      </c>
+      <c r="D29">
+        <v>2.1</v>
+      </c>
+      <c r="E29">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>17</v>
       </c>
       <c r="B30">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="C30">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D30">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E30">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>29</v>
       </c>
       <c r="B31">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="C31">
+        <v>2.1</v>
+      </c>
+      <c r="D31">
+        <v>2.1</v>
+      </c>
+      <c r="E31">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>47</v>
       </c>
       <c r="B32">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="C32">
+        <v>1.3</v>
+      </c>
+      <c r="D32">
+        <v>1.3</v>
+      </c>
+      <c r="E32">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>38</v>
       </c>
       <c r="B33">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="C33">
+        <v>1.8</v>
+      </c>
+      <c r="D33">
+        <v>1.8</v>
+      </c>
+      <c r="E33">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>19</v>
       </c>
       <c r="B34">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="C34">
+        <v>2.35</v>
+      </c>
+      <c r="D34">
+        <v>2.35</v>
+      </c>
+      <c r="E34">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>5</v>
       </c>
       <c r="B35">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>2.9</v>
+      </c>
+      <c r="C35">
+        <v>2.9</v>
+      </c>
+      <c r="D35">
+        <v>2.9</v>
+      </c>
+      <c r="E35">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>14</v>
       </c>
       <c r="B36">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="C36">
+        <v>2.5</v>
+      </c>
+      <c r="D36">
+        <v>2.5</v>
+      </c>
+      <c r="E36">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>2</v>
       </c>
       <c r="B37">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>2.9</v>
+      </c>
+      <c r="D37">
+        <v>2.9</v>
+      </c>
+      <c r="E37">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>45</v>
       </c>
       <c r="B38">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
+      <c r="C38">
+        <v>1.3</v>
+      </c>
+      <c r="D38">
+        <v>1.3</v>
+      </c>
+      <c r="E38">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>15</v>
       </c>
       <c r="B39">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
+      <c r="C39">
+        <v>2.5</v>
+      </c>
+      <c r="D39">
+        <v>2.5</v>
+      </c>
+      <c r="E39">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>44</v>
       </c>
       <c r="B40">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
+      <c r="C40">
+        <v>1.4</v>
+      </c>
+      <c r="D40">
+        <v>1.4</v>
+      </c>
+      <c r="E40">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>31</v>
       </c>
       <c r="B41">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
+      <c r="C41">
+        <v>2.1</v>
+      </c>
+      <c r="D41">
+        <v>2.1</v>
+      </c>
+      <c r="E41">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
         <v>4</v>
       </c>
       <c r="B42">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>2.8</v>
+      </c>
+      <c r="D42">
+        <v>2.8</v>
+      </c>
+      <c r="E42">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
         <v>18</v>
       </c>
       <c r="B43">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>2.4</v>
+      </c>
+      <c r="C43">
+        <v>2.4</v>
+      </c>
+      <c r="D43">
+        <v>2.4</v>
+      </c>
+      <c r="E43">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
         <v>20</v>
       </c>
       <c r="B44">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
+      <c r="C44">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="D44">
+        <v>2.5</v>
+      </c>
+      <c r="E44">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
         <v>32</v>
       </c>
       <c r="B45">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>2.1</v>
+      </c>
+      <c r="D45">
+        <v>2.1</v>
+      </c>
+      <c r="E45">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
         <v>48</v>
       </c>
       <c r="B46">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
+      <c r="C46">
+        <v>2.4</v>
+      </c>
+      <c r="D46">
+        <v>2.4</v>
+      </c>
+      <c r="E46">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
         <v>41</v>
       </c>
       <c r="B47">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
+      <c r="C47">
+        <v>1.5</v>
+      </c>
+      <c r="D47">
+        <v>1.5</v>
+      </c>
+      <c r="E47">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
         <v>40</v>
       </c>
       <c r="B48">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
+      <c r="C48">
+        <v>1.5</v>
+      </c>
+      <c r="D48">
+        <v>1.5</v>
+      </c>
+      <c r="E48">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
         <v>42</v>
       </c>
       <c r="B49">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
+      <c r="C49">
+        <v>1.4</v>
+      </c>
+      <c r="D49">
+        <v>1.4</v>
+      </c>
+      <c r="E49">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
         <v>39</v>
       </c>
       <c r="B50">
+        <v>1.5</v>
+      </c>
+      <c r="C50">
+        <v>1.5</v>
+      </c>
+      <c r="D50">
+        <v>1.5</v>
+      </c>
+      <c r="E50">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>90</v>
+      </c>
+      <c r="B51">
+        <v>1.5</v>
+      </c>
+      <c r="C51">
+        <v>1.5</v>
+      </c>
+      <c r="D51">
+        <v>1.5</v>
+      </c>
+      <c r="E51">
         <v>1.5</v>
       </c>
     </row>
@@ -31337,4 +31816,422 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>300</v>
+      </c>
+      <c r="B17">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>18</v>
+      </c>
+      <c r="B42">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>32</v>
+      </c>
+      <c r="B44">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>41</v>
+      </c>
+      <c r="B46">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>40</v>
+      </c>
+      <c r="B47">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>42</v>
+      </c>
+      <c r="B48">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>39</v>
+      </c>
+      <c r="B49">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50">
+        <v>3.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>